--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H2">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>1268.547151799515</v>
+        <v>1435.615251063188</v>
       </c>
       <c r="R2">
-        <v>11416.92436619564</v>
+        <v>12920.53725956869</v>
       </c>
       <c r="S2">
-        <v>0.02713354764682865</v>
+        <v>0.04631840354163652</v>
       </c>
       <c r="T2">
-        <v>0.02713354764682865</v>
+        <v>0.04631840354163653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H3">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>5703.092758280274</v>
+        <v>5274.143998085135</v>
       </c>
       <c r="R3">
-        <v>51327.83482452247</v>
+        <v>47467.29598276621</v>
       </c>
       <c r="S3">
-        <v>0.1219861152749154</v>
+        <v>0.1701639278762825</v>
       </c>
       <c r="T3">
-        <v>0.1219861152749154</v>
+        <v>0.1701639278762825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H4">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>6297.094342637669</v>
+        <v>5062.441789608991</v>
       </c>
       <c r="R4">
-        <v>56673.84908373902</v>
+        <v>45561.97610648091</v>
       </c>
       <c r="S4">
-        <v>0.1346914926576871</v>
+        <v>0.1633336101323105</v>
       </c>
       <c r="T4">
-        <v>0.1346914926576871</v>
+        <v>0.1633336101323105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H5">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>1004.361407739387</v>
+        <v>923.2674734430199</v>
       </c>
       <c r="R5">
-        <v>9039.252669654481</v>
+        <v>8309.407260987178</v>
       </c>
       <c r="S5">
-        <v>0.02148275534959343</v>
+        <v>0.02978811724111359</v>
       </c>
       <c r="T5">
-        <v>0.02148275534959343</v>
+        <v>0.0297881172411136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H6">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>5609.594338680863</v>
+        <v>4617.067233990505</v>
       </c>
       <c r="R6">
-        <v>50486.34904812776</v>
+        <v>41553.60510591455</v>
       </c>
       <c r="S6">
-        <v>0.1199862338991975</v>
+        <v>0.1489641344813402</v>
       </c>
       <c r="T6">
-        <v>0.1199862338991975</v>
+        <v>0.1489641344813403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J7">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>270.1291208292251</v>
+        <v>330.568377489175</v>
       </c>
       <c r="R7">
-        <v>2431.162087463026</v>
+        <v>2975.115397402575</v>
       </c>
       <c r="S7">
-        <v>0.005777917959469035</v>
+        <v>0.01066539206469722</v>
       </c>
       <c r="T7">
-        <v>0.005777917959469034</v>
+        <v>0.01066539206469723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J8">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>1214.437658557959</v>
+        <v>1214.437658557958</v>
       </c>
       <c r="R8">
-        <v>10929.93892702163</v>
+        <v>10929.93892702162</v>
       </c>
       <c r="S8">
-        <v>0.02597617441798743</v>
+        <v>0.03918237390107792</v>
       </c>
       <c r="T8">
-        <v>0.02597617441798743</v>
+        <v>0.03918237390107793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J9">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>1340.926552191917</v>
+        <v>1165.690575720125</v>
       </c>
       <c r="R9">
-        <v>12068.33896972725</v>
+        <v>10491.21518148112</v>
       </c>
       <c r="S9">
-        <v>0.02868170445472513</v>
+        <v>0.03760960776287466</v>
       </c>
       <c r="T9">
-        <v>0.02868170445472513</v>
+        <v>0.03760960776287468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J10">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>213.8724316889417</v>
+        <v>212.5938899427</v>
       </c>
       <c r="R10">
-        <v>1924.851885200475</v>
+        <v>1913.3450094843</v>
       </c>
       <c r="S10">
-        <v>0.004574617354461685</v>
+        <v>0.006859086776599607</v>
       </c>
       <c r="T10">
-        <v>0.004574617354461684</v>
+        <v>0.006859086776599609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J11">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>1194.527759387492</v>
+        <v>1063.137510672417</v>
       </c>
       <c r="R11">
-        <v>10750.74983448743</v>
+        <v>9568.237596051751</v>
       </c>
       <c r="S11">
-        <v>0.02555031228348256</v>
+        <v>0.03430085616818826</v>
       </c>
       <c r="T11">
-        <v>0.02555031228348256</v>
+        <v>0.03430085616818827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H12">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>794.3773831167262</v>
+        <v>382.8979074135864</v>
       </c>
       <c r="R12">
-        <v>7149.396448050535</v>
+        <v>3446.081166722277</v>
       </c>
       <c r="S12">
-        <v>0.01699130895038834</v>
+        <v>0.01235374155972244</v>
       </c>
       <c r="T12">
-        <v>0.01699130895038834</v>
+        <v>0.01235374155972244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H13">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>3571.335834515857</v>
+        <v>1406.685181680226</v>
       </c>
       <c r="R13">
-        <v>32142.02251064271</v>
+        <v>12660.16663512203</v>
       </c>
       <c r="S13">
-        <v>0.07638897055675023</v>
+        <v>0.04538500956495981</v>
       </c>
       <c r="T13">
-        <v>0.07638897055675023</v>
+        <v>0.04538500956495983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H14">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>3943.305787291873</v>
+        <v>1350.221353673162</v>
       </c>
       <c r="R14">
-        <v>35489.75208562686</v>
+        <v>12151.99218305846</v>
       </c>
       <c r="S14">
-        <v>0.08434520964689306</v>
+        <v>0.04356327190286691</v>
       </c>
       <c r="T14">
-        <v>0.08434520964689307</v>
+        <v>0.04356327190286692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H15">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>628.9415301998473</v>
+        <v>246.247860143972</v>
       </c>
       <c r="R15">
-        <v>5660.473771798625</v>
+        <v>2216.230741295748</v>
       </c>
       <c r="S15">
-        <v>0.01345272420700996</v>
+        <v>0.007944891745170617</v>
       </c>
       <c r="T15">
-        <v>0.01345272420700996</v>
+        <v>0.007944891745170617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H16">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>3512.786154449515</v>
+        <v>1231.433966011126</v>
       </c>
       <c r="R16">
-        <v>31615.07539004564</v>
+        <v>11082.90569410013</v>
       </c>
       <c r="S16">
-        <v>0.07513662409762725</v>
+        <v>0.03973073936790513</v>
       </c>
       <c r="T16">
-        <v>0.07513662409762727</v>
+        <v>0.03973073936790514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H17">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>21.07030151201667</v>
+        <v>16.39680759778567</v>
       </c>
       <c r="R17">
-        <v>189.63271360815</v>
+        <v>147.571268380071</v>
       </c>
       <c r="S17">
-        <v>0.0004506825222841263</v>
+        <v>0.0005290233233077991</v>
       </c>
       <c r="T17">
-        <v>0.0004506825222841263</v>
+        <v>0.0005290233233077991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H18">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>94.72717178663889</v>
+        <v>60.23837119003388</v>
       </c>
       <c r="R18">
-        <v>852.54454607975</v>
+        <v>542.1453407103049</v>
       </c>
       <c r="S18">
-        <v>0.002026163730276778</v>
+        <v>0.001943518768976963</v>
       </c>
       <c r="T18">
-        <v>0.002026163730276778</v>
+        <v>0.001943518768976963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H19">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>104.5934132292778</v>
+        <v>57.82042503221832</v>
       </c>
       <c r="R19">
-        <v>941.3407190635</v>
+        <v>520.383825289965</v>
       </c>
       <c r="S19">
-        <v>0.002237197377626188</v>
+        <v>0.001865506637386198</v>
       </c>
       <c r="T19">
-        <v>0.002237197377626189</v>
+        <v>0.001865506637386198</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H20">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>16.68223184142778</v>
+        <v>10.545053148556</v>
       </c>
       <c r="R20">
-        <v>150.14008657285</v>
+        <v>94.905478337004</v>
       </c>
       <c r="S20">
-        <v>0.0003568240501606205</v>
+        <v>0.0003402234872756471</v>
       </c>
       <c r="T20">
-        <v>0.0003568240501606205</v>
+        <v>0.0003402234872756471</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H21">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>93.17418269272777</v>
+        <v>52.73360187955445</v>
       </c>
       <c r="R21">
-        <v>838.56764423455</v>
+        <v>474.60241691599</v>
       </c>
       <c r="S21">
-        <v>0.001992946121049666</v>
+        <v>0.001701386391829086</v>
       </c>
       <c r="T21">
-        <v>0.001992946121049666</v>
+        <v>0.001701386391829086</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H22">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>628.7266818474847</v>
+        <v>404.691724036848</v>
       </c>
       <c r="R22">
-        <v>5658.540136627363</v>
+        <v>3642.225516331632</v>
       </c>
       <c r="S22">
-        <v>0.01344812871523229</v>
+        <v>0.01305689290359475</v>
       </c>
       <c r="T22">
-        <v>0.01344812871523229</v>
+        <v>0.01305689290359475</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H23">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>2826.608834441392</v>
+        <v>1486.75101202984</v>
       </c>
       <c r="R23">
-        <v>25439.47950997253</v>
+        <v>13380.75910826856</v>
       </c>
       <c r="S23">
-        <v>0.06045965684402366</v>
+        <v>0.04796823751359242</v>
       </c>
       <c r="T23">
-        <v>0.06045965684402366</v>
+        <v>0.04796823751359242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H24">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>3121.012274325664</v>
+        <v>1427.07337091592</v>
       </c>
       <c r="R24">
-        <v>28089.11046893098</v>
+        <v>12843.66033824328</v>
       </c>
       <c r="S24">
-        <v>0.06675678955379985</v>
+        <v>0.04604281002772501</v>
       </c>
       <c r="T24">
-        <v>0.06675678955379986</v>
+        <v>0.04604281002772501</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H25">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>497.7889977269464</v>
+        <v>260.263817410752</v>
       </c>
       <c r="R25">
-        <v>4480.100979542517</v>
+        <v>2342.374356696768</v>
       </c>
       <c r="S25">
-        <v>0.0106474414204714</v>
+        <v>0.008397099789229961</v>
       </c>
       <c r="T25">
-        <v>0.0106474414204714</v>
+        <v>0.008397099789229961</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H26">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>2780.26845913147</v>
+        <v>1301.52483232112</v>
       </c>
       <c r="R26">
-        <v>25022.41613218323</v>
+        <v>11713.72349089008</v>
       </c>
       <c r="S26">
-        <v>0.05946846090805864</v>
+        <v>0.04199213707033615</v>
       </c>
       <c r="T26">
-        <v>0.05946846090805864</v>
+        <v>0.04199213707033616</v>
       </c>
     </row>
   </sheetData>
